--- a/app/fisierele/listacanal1.xlsx
+++ b/app/fisierele/listacanal1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ia\app\fisierele\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A3E8820-F81B-46DD-8F28-527E63A89B1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DCCAE60-F96B-4CD1-BF7D-D983D01D740B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="plati an 2" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Adresa de e-mail</t>
   </si>
@@ -37,6 +37,12 @@
   </si>
   <si>
     <t>Plata mar 2024</t>
+  </si>
+  <si>
+    <t>solidaritate@inbox.ru</t>
+  </si>
+  <si>
+    <t>Maria Bontas</t>
   </si>
 </sst>
 </file>
@@ -520,19 +526,19 @@
   <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G27" sqref="G27"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="27.88671875" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -543,207 +549,211 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="7"/>
+    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="C2" s="13"/>
     </row>
-    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
       <c r="B3" s="8"/>
       <c r="C3" s="14"/>
     </row>
-    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
       <c r="B4" s="8"/>
       <c r="C4" s="14"/>
     </row>
-    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
       <c r="B5" s="8"/>
       <c r="C5" s="14"/>
     </row>
-    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
       <c r="B6" s="8"/>
       <c r="C6" s="14"/>
     </row>
-    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
       <c r="B7" s="8"/>
       <c r="C7" s="14"/>
     </row>
-    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
       <c r="B8" s="8"/>
       <c r="C8" s="14"/>
     </row>
-    <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
       <c r="B9" s="8"/>
       <c r="C9" s="14"/>
     </row>
-    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
       <c r="B10" s="8"/>
       <c r="C10" s="14"/>
     </row>
-    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
       <c r="B11" s="8"/>
       <c r="C11" s="14"/>
     </row>
-    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
       <c r="B12" s="8"/>
       <c r="C12" s="14"/>
     </row>
-    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
       <c r="B13" s="8"/>
       <c r="C13" s="14"/>
     </row>
-    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
       <c r="B14" s="8"/>
       <c r="C14" s="14"/>
     </row>
-    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
       <c r="B15" s="8"/>
       <c r="C15" s="14"/>
     </row>
-    <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
       <c r="B16" s="8"/>
       <c r="C16" s="14"/>
     </row>
-    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
       <c r="B17" s="8"/>
       <c r="C17" s="14"/>
     </row>
-    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
       <c r="B18" s="8"/>
       <c r="C18" s="14"/>
     </row>
-    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
       <c r="B19" s="8"/>
       <c r="C19" s="14"/>
     </row>
-    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
       <c r="B20" s="8"/>
       <c r="C20" s="14"/>
     </row>
-    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
       <c r="B21" s="8"/>
       <c r="C21" s="14"/>
     </row>
-    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
       <c r="B22" s="8"/>
       <c r="C22" s="14"/>
     </row>
-    <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3"/>
       <c r="B23" s="8"/>
       <c r="C23" s="14"/>
     </row>
-    <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3"/>
       <c r="B24" s="8"/>
       <c r="C24" s="14"/>
     </row>
-    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
       <c r="B25" s="8"/>
       <c r="C25" s="14"/>
     </row>
-    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
       <c r="B26" s="8"/>
       <c r="C26" s="14"/>
     </row>
-    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="3"/>
       <c r="B27" s="8"/>
       <c r="C27" s="14"/>
     </row>
-    <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3"/>
       <c r="B28" s="8"/>
       <c r="C28" s="14"/>
     </row>
-    <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="3"/>
       <c r="B29" s="8"/>
       <c r="C29" s="14"/>
     </row>
-    <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="4"/>
       <c r="B30" s="9"/>
       <c r="C30" s="14"/>
     </row>
-    <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="5"/>
       <c r="B31" s="10"/>
       <c r="C31" s="14"/>
     </row>
-    <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="4"/>
       <c r="B32" s="9"/>
       <c r="C32" s="14"/>
     </row>
-    <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="3"/>
       <c r="B33" s="8"/>
       <c r="C33" s="12"/>
     </row>
-    <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3"/>
       <c r="B34" s="8"/>
       <c r="C34" s="12"/>
     </row>
-    <row r="35" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="3"/>
       <c r="B35" s="8"/>
       <c r="C35" s="12"/>
     </row>
-    <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="3"/>
       <c r="B36" s="8"/>
       <c r="C36" s="12"/>
     </row>
-    <row r="37" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3"/>
       <c r="B37" s="8"/>
       <c r="C37" s="12"/>
     </row>
-    <row r="38" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="3"/>
       <c r="B38" s="8"/>
       <c r="C38" s="12"/>
     </row>
-    <row r="39" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="3"/>
       <c r="B39" s="8"/>
       <c r="C39" s="12"/>
     </row>
-    <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="3"/>
       <c r="B40" s="8"/>
       <c r="C40" s="12"/>
     </row>
-    <row r="41" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="3"/>
       <c r="B41" s="8"/>
       <c r="C41" s="12"/>
     </row>
-    <row r="42" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="3"/>
       <c r="B42" s="8"/>
       <c r="C42" s="12"/>
